--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>183.29157</v>
+        <v>139.633461</v>
       </c>
       <c r="H2">
-        <v>549.8747100000001</v>
+        <v>418.900383</v>
       </c>
       <c r="I2">
-        <v>0.2513683001495071</v>
+        <v>0.1723688299390553</v>
       </c>
       <c r="J2">
-        <v>0.2647198423983431</v>
+        <v>0.1847819285778738</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N2">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O2">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P2">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q2">
-        <v>10267.1280042177</v>
+        <v>5320.92758736066</v>
       </c>
       <c r="R2">
-        <v>92404.15203795931</v>
+        <v>47888.34828624594</v>
       </c>
       <c r="S2">
-        <v>0.1227586415330707</v>
+        <v>0.0660427579255588</v>
       </c>
       <c r="T2">
-        <v>0.1386380595879268</v>
+        <v>0.0768675080939718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>183.29157</v>
+        <v>139.633461</v>
       </c>
       <c r="H3">
-        <v>549.8747100000001</v>
+        <v>418.900383</v>
       </c>
       <c r="I3">
-        <v>0.2513683001495071</v>
+        <v>0.1723688299390553</v>
       </c>
       <c r="J3">
-        <v>0.2647198423983431</v>
+        <v>0.1847819285778738</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P3">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q3">
-        <v>1677.02328704988</v>
+        <v>1277.574117284124</v>
       </c>
       <c r="R3">
-        <v>15093.20958344892</v>
+        <v>11498.16705555712</v>
       </c>
       <c r="S3">
-        <v>0.02005128410330501</v>
+        <v>0.01585710701272805</v>
       </c>
       <c r="T3">
-        <v>0.0226450137082982</v>
+        <v>0.01845616900223564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>183.29157</v>
+        <v>139.633461</v>
       </c>
       <c r="H4">
-        <v>549.8747100000001</v>
+        <v>418.900383</v>
       </c>
       <c r="I4">
-        <v>0.2513683001495071</v>
+        <v>0.1723688299390553</v>
       </c>
       <c r="J4">
-        <v>0.2647198423983431</v>
+        <v>0.1847819285778738</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N4">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O4">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P4">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q4">
-        <v>2223.15170065065</v>
+        <v>2097.796985412678</v>
       </c>
       <c r="R4">
-        <v>20008.36530585585</v>
+        <v>18880.1728687141</v>
       </c>
       <c r="S4">
-        <v>0.02658105388202998</v>
+        <v>0.02603762148796666</v>
       </c>
       <c r="T4">
-        <v>0.03001944047266116</v>
+        <v>0.03030532254164818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>183.29157</v>
+        <v>139.633461</v>
       </c>
       <c r="H5">
-        <v>549.8747100000001</v>
+        <v>418.900383</v>
       </c>
       <c r="I5">
-        <v>0.2513683001495071</v>
+        <v>0.1723688299390553</v>
       </c>
       <c r="J5">
-        <v>0.2647198423983431</v>
+        <v>0.1847819285778738</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N5">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O5">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P5">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q5">
-        <v>4257.722403174241</v>
+        <v>3289.234292542044</v>
       </c>
       <c r="R5">
-        <v>25546.33441904544</v>
+        <v>19735.40575525227</v>
       </c>
       <c r="S5">
-        <v>0.05090734410088965</v>
+        <v>0.04082560804977118</v>
       </c>
       <c r="T5">
-        <v>0.03832830187095719</v>
+        <v>0.03167809114154337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>183.29157</v>
+        <v>139.633461</v>
       </c>
       <c r="H6">
-        <v>549.8747100000001</v>
+        <v>418.900383</v>
       </c>
       <c r="I6">
-        <v>0.2513683001495071</v>
+        <v>0.1723688299390553</v>
       </c>
       <c r="J6">
-        <v>0.2647198423983431</v>
+        <v>0.1847819285778738</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N6">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O6">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P6">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q6">
-        <v>2598.59038956363</v>
+        <v>1901.86498853901</v>
       </c>
       <c r="R6">
-        <v>23387.31350607267</v>
+        <v>17116.7848968511</v>
       </c>
       <c r="S6">
-        <v>0.03106997653021179</v>
+        <v>0.02360573546303063</v>
       </c>
       <c r="T6">
-        <v>0.0350890267584997</v>
+        <v>0.0274748377984748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>382.7603340000001</v>
       </c>
       <c r="I7">
-        <v>0.1749740673147845</v>
+        <v>0.1574979484290947</v>
       </c>
       <c r="J7">
-        <v>0.1842678949406805</v>
+        <v>0.1688401242154775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N7">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O7">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P7">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q7">
-        <v>7146.808668678581</v>
+        <v>4861.871946600681</v>
       </c>
       <c r="R7">
-        <v>64321.27801810723</v>
+        <v>43756.84751940612</v>
       </c>
       <c r="S7">
-        <v>0.08545062680657636</v>
+        <v>0.06034501067015744</v>
       </c>
       <c r="T7">
-        <v>0.09650407452451627</v>
+        <v>0.07023587054537582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>382.7603340000001</v>
       </c>
       <c r="I8">
-        <v>0.1749740673147845</v>
+        <v>0.1574979484290947</v>
       </c>
       <c r="J8">
-        <v>0.1842678949406805</v>
+        <v>0.1688401242154775</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P8">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q8">
         <v>1167.353183922552</v>
@@ -948,10 +948,10 @@
         <v>10506.17865530297</v>
       </c>
       <c r="S8">
-        <v>0.01395742713919307</v>
+        <v>0.01448905711901804</v>
       </c>
       <c r="T8">
-        <v>0.01576288716828384</v>
+        <v>0.01686388864355887</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>382.7603340000001</v>
       </c>
       <c r="I9">
-        <v>0.1749740673147845</v>
+        <v>0.1574979484290947</v>
       </c>
       <c r="J9">
-        <v>0.1842678949406805</v>
+        <v>0.1688401242154775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N9">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O9">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P9">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q9">
-        <v>1547.50577176701</v>
+        <v>1916.812462787244</v>
       </c>
       <c r="R9">
-        <v>13927.55194590309</v>
+        <v>17251.3121650852</v>
       </c>
       <c r="S9">
-        <v>0.01850271139394243</v>
+        <v>0.02379126184112297</v>
       </c>
       <c r="T9">
-        <v>0.02089612570436074</v>
+        <v>0.0276907729110837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>382.7603340000001</v>
       </c>
       <c r="I10">
-        <v>0.1749740673147845</v>
+        <v>0.1574979484290947</v>
       </c>
       <c r="J10">
-        <v>0.1842678949406805</v>
+        <v>0.1688401242154775</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N10">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O10">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P10">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q10">
-        <v>2963.742866294497</v>
+        <v>3005.460170270713</v>
       </c>
       <c r="R10">
-        <v>17782.45719776698</v>
+        <v>18032.76102162428</v>
       </c>
       <c r="S10">
-        <v>0.03543591235739766</v>
+        <v>0.03730343539190201</v>
       </c>
       <c r="T10">
-        <v>0.02667981152612092</v>
+        <v>0.0289451078057849</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>382.7603340000001</v>
       </c>
       <c r="I11">
-        <v>0.1749740673147845</v>
+        <v>0.1574979484290947</v>
       </c>
       <c r="J11">
-        <v>0.1842678949406805</v>
+        <v>0.1688401242154775</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N11">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O11">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P11">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q11">
-        <v>1808.843555359302</v>
+        <v>1737.784226938981</v>
       </c>
       <c r="R11">
-        <v>16279.59199823372</v>
+        <v>15640.05804245082</v>
       </c>
       <c r="S11">
-        <v>0.02162738961767496</v>
+        <v>0.02156918340689426</v>
       </c>
       <c r="T11">
-        <v>0.02442499601739874</v>
+        <v>0.02510448430967426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>137.7814383333333</v>
+        <v>180.251373</v>
       </c>
       <c r="H12">
-        <v>413.3443150000001</v>
+        <v>540.7541189999999</v>
       </c>
       <c r="I12">
-        <v>0.1889551491429973</v>
+        <v>0.2225091180610228</v>
       </c>
       <c r="J12">
-        <v>0.1989915883257317</v>
+        <v>0.2385330571427265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N12">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O12">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P12">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q12">
-        <v>7717.865387772939</v>
+        <v>6868.729718411379</v>
       </c>
       <c r="R12">
-        <v>69460.78848995645</v>
+        <v>61818.56746570241</v>
       </c>
       <c r="S12">
-        <v>0.09227845120357989</v>
+        <v>0.08525390481289154</v>
       </c>
       <c r="T12">
-        <v>0.1042151106991278</v>
+        <v>0.09922746148236651</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>137.7814383333333</v>
+        <v>180.251373</v>
       </c>
       <c r="H13">
-        <v>413.3443150000001</v>
+        <v>540.7541189999999</v>
       </c>
       <c r="I13">
-        <v>0.1889551491429973</v>
+        <v>0.2225091180610228</v>
       </c>
       <c r="J13">
-        <v>0.1989915883257317</v>
+        <v>0.2385330571427265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P13">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q13">
-        <v>1260.62906552782</v>
+        <v>1649.207053241532</v>
       </c>
       <c r="R13">
-        <v>11345.66158975038</v>
+        <v>14842.86347917379</v>
       </c>
       <c r="S13">
-        <v>0.01507267772426013</v>
+        <v>0.0204697734366991</v>
       </c>
       <c r="T13">
-        <v>0.01702240075638709</v>
+        <v>0.02382487534970585</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>137.7814383333333</v>
+        <v>180.251373</v>
       </c>
       <c r="H14">
-        <v>413.3443150000001</v>
+        <v>540.7541189999999</v>
       </c>
       <c r="I14">
-        <v>0.1889551491429973</v>
+        <v>0.2225091180610228</v>
       </c>
       <c r="J14">
-        <v>0.1989915883257317</v>
+        <v>0.2385330571427265</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N14">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O14">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P14">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q14">
-        <v>1671.157265709725</v>
+        <v>2708.024166900053</v>
       </c>
       <c r="R14">
-        <v>15040.41539138753</v>
+        <v>24372.21750210048</v>
       </c>
       <c r="S14">
-        <v>0.01998114717595536</v>
+        <v>0.03361169299427658</v>
       </c>
       <c r="T14">
-        <v>0.02256580423357787</v>
+        <v>0.03912082360645586</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>137.7814383333333</v>
+        <v>180.251373</v>
       </c>
       <c r="H15">
-        <v>413.3443150000001</v>
+        <v>540.7541189999999</v>
       </c>
       <c r="I15">
-        <v>0.1889551491429973</v>
+        <v>0.2225091180610228</v>
       </c>
       <c r="J15">
-        <v>0.1989915883257317</v>
+        <v>0.2385330571427265</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N15">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O15">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P15">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q15">
-        <v>3200.556996338694</v>
+        <v>4246.038113668092</v>
       </c>
       <c r="R15">
-        <v>19203.34197803216</v>
+        <v>25476.22868200855</v>
       </c>
       <c r="S15">
-        <v>0.03826737417302119</v>
+        <v>0.05270135003336418</v>
       </c>
       <c r="T15">
-        <v>0.02881162816519425</v>
+        <v>0.04089291622072111</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>137.7814383333333</v>
+        <v>180.251373</v>
       </c>
       <c r="H16">
-        <v>413.3443150000001</v>
+        <v>540.7541189999999</v>
       </c>
       <c r="I16">
-        <v>0.1889551491429973</v>
+        <v>0.2225091180610228</v>
       </c>
       <c r="J16">
-        <v>0.1989915883257317</v>
+        <v>0.2385330571427265</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N16">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O16">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P16">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q16">
-        <v>1953.376914788029</v>
+        <v>2455.09760332293</v>
       </c>
       <c r="R16">
-        <v>17580.39223309226</v>
+        <v>22095.87842990637</v>
       </c>
       <c r="S16">
-        <v>0.02335549886618075</v>
+        <v>0.03047239678379139</v>
       </c>
       <c r="T16">
-        <v>0.02637664447144465</v>
+        <v>0.03546698048347723</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>110.331158</v>
+        <v>163.257347</v>
       </c>
       <c r="H17">
-        <v>220.662316</v>
+        <v>326.514694</v>
       </c>
       <c r="I17">
-        <v>0.1513094990674513</v>
+        <v>0.2015310490752954</v>
       </c>
       <c r="J17">
-        <v>0.1062309148838167</v>
+        <v>0.1440295051397322</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N17">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O17">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P17">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q17">
-        <v>6180.230340323713</v>
+        <v>6221.148679338487</v>
       </c>
       <c r="R17">
-        <v>37081.38204194228</v>
+        <v>37326.89207603092</v>
       </c>
       <c r="S17">
-        <v>0.0738937588610899</v>
+        <v>0.07721620140526313</v>
       </c>
       <c r="T17">
-        <v>0.0556348469170694</v>
+        <v>0.05991489123046641</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>110.331158</v>
+        <v>163.257347</v>
       </c>
       <c r="H18">
-        <v>220.662316</v>
+        <v>326.514694</v>
       </c>
       <c r="I18">
-        <v>0.1513094990674513</v>
+        <v>0.2015310490752954</v>
       </c>
       <c r="J18">
-        <v>0.1062309148838167</v>
+        <v>0.1440295051397322</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P18">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q18">
-        <v>1009.473164822472</v>
+        <v>1493.720484258948</v>
       </c>
       <c r="R18">
-        <v>6056.838988934831</v>
+        <v>8962.322905553689</v>
       </c>
       <c r="S18">
-        <v>0.01206973891109467</v>
+        <v>0.01853989153783904</v>
       </c>
       <c r="T18">
-        <v>0.009087344953043627</v>
+        <v>0.01438578387305331</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>110.331158</v>
+        <v>163.257347</v>
       </c>
       <c r="H19">
-        <v>220.662316</v>
+        <v>326.514694</v>
       </c>
       <c r="I19">
-        <v>0.1513094990674513</v>
+        <v>0.2015310490752954</v>
       </c>
       <c r="J19">
-        <v>0.1062309148838167</v>
+        <v>0.1440295051397322</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N19">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O19">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P19">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q19">
-        <v>1338.21158028411</v>
+        <v>2452.712751874506</v>
       </c>
       <c r="R19">
-        <v>8029.269481704659</v>
+        <v>14716.27651124704</v>
       </c>
       <c r="S19">
-        <v>0.01600029098809488</v>
+        <v>0.03044279627442329</v>
       </c>
       <c r="T19">
-        <v>0.01204667015822849</v>
+        <v>0.02362168553151587</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>110.331158</v>
+        <v>163.257347</v>
       </c>
       <c r="H20">
-        <v>220.662316</v>
+        <v>326.514694</v>
       </c>
       <c r="I20">
-        <v>0.1513094990674513</v>
+        <v>0.2015310490752954</v>
       </c>
       <c r="J20">
-        <v>0.1062309148838167</v>
+        <v>0.1440295051397322</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N20">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O20">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P20">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q20">
-        <v>2562.908066010656</v>
+        <v>3845.723370430788</v>
       </c>
       <c r="R20">
-        <v>10251.63226404262</v>
+        <v>15382.89348172315</v>
       </c>
       <c r="S20">
-        <v>0.03064334178247053</v>
+        <v>0.04773268822626611</v>
       </c>
       <c r="T20">
-        <v>0.01538097989484285</v>
+        <v>0.02469169916128996</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>110.331158</v>
+        <v>163.257347</v>
       </c>
       <c r="H21">
-        <v>220.662316</v>
+        <v>326.514694</v>
       </c>
       <c r="I21">
-        <v>0.1513094990674513</v>
+        <v>0.2015310490752954</v>
       </c>
       <c r="J21">
-        <v>0.1062309148838167</v>
+        <v>0.1440295051397322</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N21">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O21">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P21">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q21">
-        <v>1564.204435851722</v>
+        <v>2223.63200165227</v>
       </c>
       <c r="R21">
-        <v>9385.22661511033</v>
+        <v>13341.79200991362</v>
       </c>
       <c r="S21">
-        <v>0.01870236852470132</v>
+        <v>0.02759947163150383</v>
       </c>
       <c r="T21">
-        <v>0.01408107296063228</v>
+        <v>0.02141544534340669</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>170.1844126666667</v>
+        <v>199.356374</v>
       </c>
       <c r="H22">
-        <v>510.553238</v>
+        <v>598.069122</v>
       </c>
       <c r="I22">
-        <v>0.2333929843252597</v>
+        <v>0.2460930544955318</v>
       </c>
       <c r="J22">
-        <v>0.245789759451428</v>
+        <v>0.2638153849241901</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N22">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O22">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P22">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q22">
-        <v>9532.926959877504</v>
+        <v>7596.752401151106</v>
       </c>
       <c r="R22">
-        <v>85796.34263889753</v>
+        <v>68370.77161035995</v>
       </c>
       <c r="S22">
-        <v>0.1139801863722565</v>
+        <v>0.09429004090215284</v>
       </c>
       <c r="T22">
-        <v>0.1287240692205193</v>
+        <v>0.1097446670897162</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>170.1844126666667</v>
+        <v>199.356374</v>
       </c>
       <c r="H23">
-        <v>510.553238</v>
+        <v>598.069122</v>
       </c>
       <c r="I23">
-        <v>0.2333929843252597</v>
+        <v>0.2460930544955318</v>
       </c>
       <c r="J23">
-        <v>0.245789759451428</v>
+        <v>0.2638153849241901</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.448452</v>
       </c>
       <c r="O23">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P23">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q23">
-        <v>1557.099560743064</v>
+        <v>1824.007954211016</v>
       </c>
       <c r="R23">
-        <v>14013.89604668758</v>
+        <v>16416.07158789914</v>
       </c>
       <c r="S23">
-        <v>0.0186174192753842</v>
+        <v>0.02263938266335342</v>
       </c>
       <c r="T23">
-        <v>0.02102567159949224</v>
+        <v>0.02635009476859486</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>170.1844126666667</v>
+        <v>199.356374</v>
       </c>
       <c r="H24">
-        <v>510.553238</v>
+        <v>598.069122</v>
       </c>
       <c r="I24">
-        <v>0.2333929843252597</v>
+        <v>0.2460930544955318</v>
       </c>
       <c r="J24">
-        <v>0.245789759451428</v>
+        <v>0.2638153849241901</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N24">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O24">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P24">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q24">
-        <v>2064.17439953257</v>
+        <v>2995.050021713652</v>
       </c>
       <c r="R24">
-        <v>18577.56959579313</v>
+        <v>26955.45019542287</v>
       </c>
       <c r="S24">
-        <v>0.02468024603081468</v>
+        <v>0.03717422579266669</v>
       </c>
       <c r="T24">
-        <v>0.02787275402475849</v>
+        <v>0.04326727398673764</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>170.1844126666667</v>
+        <v>199.356374</v>
       </c>
       <c r="H25">
-        <v>510.553238</v>
+        <v>598.069122</v>
       </c>
       <c r="I25">
-        <v>0.2333929843252597</v>
+        <v>0.2460930544955318</v>
       </c>
       <c r="J25">
-        <v>0.245789759451428</v>
+        <v>0.2638153849241901</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N25">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O25">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P25">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q25">
-        <v>3953.253204617739</v>
+        <v>4696.079414644296</v>
       </c>
       <c r="R25">
-        <v>23719.51922770644</v>
+        <v>28176.47648786578</v>
       </c>
       <c r="S25">
-        <v>0.04726696626707819</v>
+        <v>0.05828721231186552</v>
       </c>
       <c r="T25">
-        <v>0.03558744977971191</v>
+        <v>0.04522719225028453</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>170.1844126666667</v>
+        <v>199.356374</v>
       </c>
       <c r="H26">
-        <v>510.553238</v>
+        <v>598.069122</v>
       </c>
       <c r="I26">
-        <v>0.2333929843252597</v>
+        <v>0.2460930544955318</v>
       </c>
       <c r="J26">
-        <v>0.245789759451428</v>
+        <v>0.2638153849241901</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N26">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O26">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P26">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q26">
-        <v>2412.765514579481</v>
+        <v>2715.31554999334</v>
       </c>
       <c r="R26">
-        <v>21714.88963121533</v>
+        <v>24437.83994994006</v>
       </c>
       <c r="S26">
-        <v>0.02884816637972609</v>
+        <v>0.03370219282549328</v>
       </c>
       <c r="T26">
-        <v>0.03257981482694607</v>
+        <v>0.03922615682885693</v>
       </c>
     </row>
   </sheetData>
